--- a/runningArea/50Missions.xlsx
+++ b/runningArea/50Missions.xlsx
@@ -7678,7 +7678,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -7695,7 +7695,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -7712,7 +7712,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B28">
         <v>14</v>
@@ -7729,7 +7729,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -7746,7 +7746,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B30">
         <v>16</v>
@@ -7763,7 +7763,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -7780,7 +7780,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B32">
         <v>17</v>
@@ -7797,7 +7797,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B33">
         <v>24</v>
@@ -7814,7 +7814,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B34">
         <v>25</v>
@@ -7831,7 +7831,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -7848,7 +7848,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -7865,7 +7865,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -7882,7 +7882,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B38">
         <v>30</v>
@@ -7899,7 +7899,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -7916,7 +7916,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B40">
         <v>36</v>
@@ -7933,7 +7933,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -7950,7 +7950,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B42">
         <v>43</v>
@@ -7967,7 +7967,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -7984,7 +7984,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B44">
         <v>37</v>
@@ -8001,7 +8001,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B45">
         <v>46</v>
@@ -8018,7 +8018,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B46">
         <v>26</v>
@@ -8035,7 +8035,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -8052,7 +8052,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B48">
         <v>39</v>
@@ -8069,7 +8069,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -8086,7 +8086,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -8103,7 +8103,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B51">
         <v>28</v>
@@ -8120,7 +8120,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B52">
         <v>18</v>
@@ -8137,7 +8137,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -8154,7 +8154,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B54">
         <v>31</v>
@@ -8171,7 +8171,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -8188,7 +8188,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B56">
         <v>19</v>
@@ -8205,7 +8205,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B57">
         <v>29</v>
@@ -8222,7 +8222,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -8239,7 +8239,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B59">
         <v>21</v>
@@ -8256,7 +8256,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -8273,7 +8273,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B61">
         <v>45</v>
@@ -8290,7 +8290,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -8307,7 +8307,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B63">
         <v>44</v>
@@ -8324,7 +8324,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -8341,7 +8341,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B65">
         <v>41</v>
@@ -8358,7 +8358,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -8375,7 +8375,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B67">
         <v>35</v>
@@ -8392,7 +8392,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B68">
         <v>34</v>
@@ -8409,7 +8409,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B69">
         <v>40</v>
@@ -8426,7 +8426,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8443,7 +8443,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B71">
         <v>22</v>
@@ -8460,7 +8460,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -8477,7 +8477,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B73">
         <v>6</v>
